--- a/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
+++ b/input_data/admin_data/SLV/_clean/wages-SLV.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="4731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5478" uniqueCount="4731">
   <si>
     <t>year</t>
   </si>
@@ -14269,22 +14269,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4482</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4483</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4494</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4495</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4496</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4497</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -14292,16 +14292,16 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>4484</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D2">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E2">
-        <v>0.97390103340148926</v>
+        <v>0.97245633602142334</v>
       </c>
       <c r="F2">
         <v>1479.1387939453125</v>
@@ -14310,16 +14310,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4485</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D3">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E3">
-        <v>0.9764675498008728</v>
+        <v>0.97516489028930664</v>
       </c>
       <c r="F3">
         <v>3625.6552734375</v>
@@ -14328,16 +14328,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4486</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D4">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E4">
-        <v>0.98206603527069092</v>
+        <v>0.98107337951660156</v>
       </c>
       <c r="F4">
         <v>7725.33154296875</v>
@@ -14346,16 +14346,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4487</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D5">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E5">
-        <v>0.99770212173461914</v>
+        <v>0.99757492542266846</v>
       </c>
       <c r="F5">
         <v>17323.384765625</v>
@@ -14364,16 +14364,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4488</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D6">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E6">
-        <v>0.99955010414123535</v>
+        <v>0.99952518939971924</v>
       </c>
       <c r="F6">
         <v>31795.40625</v>
@@ -14382,16 +14382,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4489</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D7">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E7">
-        <v>0.99991357326507568</v>
+        <v>0.99990880489349365</v>
       </c>
       <c r="F7">
         <v>61285.35546875</v>
@@ -14400,16 +14400,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4490</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D8">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E8">
-        <v>0.99998742341995239</v>
+        <v>0.99998670816421509</v>
       </c>
       <c r="F8">
         <v>101068.2890625</v>
@@ -14418,16 +14418,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4491</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D9">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E9">
-        <v>0.99999284744262695</v>
+        <v>0.99999243021011353</v>
       </c>
       <c r="F9">
         <v>165370.15625</v>
@@ -14436,16 +14436,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4492</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D10">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E10">
-        <v>0.99999970197677612</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="F10">
         <v>531303.1875</v>
@@ -14454,13 +14454,13 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4493</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6272353</v>
+        <v>5943366</v>
       </c>
       <c r="D11">
-        <v>194.94239807128906</v>
+        <v>205.73316955566406</v>
       </c>
       <c r="E11">
         <v>0.99999982118606567</v>
@@ -14480,22 +14480,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4622</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4623</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4634</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4635</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4636</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4637</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -14503,16 +14503,16 @@
         <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>4624</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D2">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E2">
-        <v>0.95128971338272095</v>
+        <v>0.95038139820098877</v>
       </c>
       <c r="F2">
         <v>1254.93212890625</v>
@@ -14521,16 +14521,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4625</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D3">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E3">
-        <v>0.95660579204559326</v>
+        <v>0.95579665899276733</v>
       </c>
       <c r="F3">
         <v>3771.149169921875</v>
@@ -14539,16 +14539,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4626</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D4">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E4">
-        <v>0.96647495031356812</v>
+        <v>0.96584975719451904</v>
       </c>
       <c r="F4">
         <v>7894.1923828125</v>
@@ -14557,16 +14557,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4627</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D5">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E5">
-        <v>0.9949377179145813</v>
+        <v>0.99484330415725708</v>
       </c>
       <c r="F5">
         <v>17483.265625</v>
@@ -14575,16 +14575,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4628</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D6">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E6">
-        <v>0.99890589714050293</v>
+        <v>0.99888551235198975</v>
       </c>
       <c r="F6">
         <v>31801.68359375</v>
@@ -14593,16 +14593,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4629</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D7">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E7">
-        <v>0.99978500604629517</v>
+        <v>0.99978101253509521</v>
       </c>
       <c r="F7">
         <v>59856.15234375</v>
@@ -14611,16 +14611,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4630</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D8">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E8">
-        <v>0.99995875358581543</v>
+        <v>0.99995797872543335</v>
       </c>
       <c r="F8">
         <v>99138.890625</v>
@@ -14629,16 +14629,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4631</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D9">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E9">
-        <v>0.99997639656066895</v>
+        <v>0.99997591972351074</v>
       </c>
       <c r="F9">
         <v>170434.6875</v>
@@ -14647,13 +14647,13 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4632</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D10">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E10">
         <v>0.9999995231628418</v>
@@ -14665,13 +14665,13 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4633</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6181405</v>
+        <v>6068249</v>
       </c>
       <c r="D11">
-        <v>382.30856323242188</v>
+        <v>389.43756103515625</v>
       </c>
       <c r="E11">
         <v>0.99999982118606567</v>
@@ -14691,22 +14691,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4638</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4639</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4649</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4650</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4651</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4652</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -14714,16 +14714,16 @@
         <v>2012</v>
       </c>
       <c r="B2" t="s">
-        <v>4640</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D2">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E2">
-        <v>0.97734081745147705</v>
+        <v>0.97683942317962646</v>
       </c>
       <c r="F2">
         <v>1285.4324951171875</v>
@@ -14732,16 +14732,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4641</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D3">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E3">
-        <v>0.97850817441940308</v>
+        <v>0.97803264856338501</v>
       </c>
       <c r="F3">
         <v>3994.8017578125</v>
@@ -14750,16 +14750,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4642</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D4">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E4">
-        <v>0.98141187429428101</v>
+        <v>0.98100060224533081</v>
       </c>
       <c r="F4">
         <v>8330.7744140625</v>
@@ -14768,16 +14768,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4643</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D5">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E5">
-        <v>0.99584561586380005</v>
+        <v>0.99575364589691162</v>
       </c>
       <c r="F5">
         <v>17839.078125</v>
@@ -14786,16 +14786,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4644</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D6">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E6">
-        <v>0.99889731407165527</v>
+        <v>0.99887293577194214</v>
       </c>
       <c r="F6">
         <v>31780.751953125</v>
@@ -14804,16 +14804,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4645</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D7">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E7">
-        <v>0.99972796440124512</v>
+        <v>0.9997219443321228</v>
       </c>
       <c r="F7">
         <v>59616.9921875</v>
@@ -14822,16 +14822,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4646</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D8">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E8">
-        <v>0.99994432926177979</v>
+        <v>0.9999430775642395</v>
       </c>
       <c r="F8">
         <v>96981.953125</v>
@@ -14840,16 +14840,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4647</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D9">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E9">
-        <v>0.99997085332870483</v>
+        <v>0.99997025728225708</v>
       </c>
       <c r="F9">
         <v>161510.359375</v>
@@ -14858,13 +14858,13 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4648</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6249262</v>
+        <v>6113975</v>
       </c>
       <c r="D10">
-        <v>234.55183410644531</v>
+        <v>239.74188232421875</v>
       </c>
       <c r="E10">
         <v>0.99999934434890747</v>
@@ -14884,22 +14884,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4653</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4654</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4664</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4665</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4666</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4667</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -14907,16 +14907,16 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>4655</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D2">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E2">
-        <v>0.97354578971862793</v>
+        <v>0.97289276123046875</v>
       </c>
       <c r="F2">
         <v>1286.895751953125</v>
@@ -14925,16 +14925,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4656</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D3">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E3">
-        <v>0.97486752271652222</v>
+        <v>0.97424709796905518</v>
       </c>
       <c r="F3">
         <v>4058.47998046875</v>
@@ -14943,16 +14943,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4657</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D4">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E4">
-        <v>0.97837573289871216</v>
+        <v>0.97784191370010376</v>
       </c>
       <c r="F4">
         <v>8363.365234375</v>
@@ -14961,16 +14961,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4658</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D5">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E5">
-        <v>0.99513810873031616</v>
+        <v>0.9950181245803833</v>
       </c>
       <c r="F5">
         <v>17798.814453125</v>
@@ -14979,16 +14979,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4659</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D6">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E6">
-        <v>0.99873936176300049</v>
+        <v>0.99870824813842773</v>
       </c>
       <c r="F6">
         <v>31825.748046875</v>
@@ -14997,16 +14997,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4660</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D7">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E7">
-        <v>0.99970430135726929</v>
+        <v>0.99969702959060669</v>
       </c>
       <c r="F7">
         <v>59749.58203125</v>
@@ -15015,16 +15015,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4661</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D8">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E8">
-        <v>0.99993574619293213</v>
+        <v>0.99993419647216797</v>
       </c>
       <c r="F8">
         <v>96545.8828125</v>
@@ -15033,16 +15033,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4662</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D9">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E9">
-        <v>0.99996489286422729</v>
+        <v>0.99996399879455566</v>
       </c>
       <c r="F9">
         <v>155907.234375</v>
@@ -15051,13 +15051,13 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4663</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6290383</v>
+        <v>6138839</v>
       </c>
       <c r="D10">
-        <v>273.27294921875</v>
+        <v>280.01898193359375</v>
       </c>
       <c r="E10">
         <v>0.99999904632568359</v>
@@ -15077,22 +15077,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4668</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4669</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4679</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4680</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4681</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4682</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -15100,16 +15100,16 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>4670</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D2">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E2">
-        <v>0.96958673000335693</v>
+        <v>0.9684099555015564</v>
       </c>
       <c r="F2">
         <v>1326.131591796875</v>
@@ -15118,16 +15118,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4671</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D3">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E3">
-        <v>0.97089755535125732</v>
+        <v>0.96977150440216064</v>
       </c>
       <c r="F3">
         <v>4075.26904296875</v>
@@ -15136,16 +15136,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4672</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D4">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E4">
-        <v>0.97479259967803955</v>
+        <v>0.97381728887557983</v>
       </c>
       <c r="F4">
         <v>8366.796875</v>
@@ -15154,16 +15154,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4673</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D5">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E5">
-        <v>0.9944954514503479</v>
+        <v>0.99428242444992065</v>
       </c>
       <c r="F5">
         <v>17756.802734375</v>
@@ -15172,16 +15172,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4674</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D6">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E6">
-        <v>0.99863046407699585</v>
+        <v>0.99857747554779053</v>
       </c>
       <c r="F6">
         <v>31810.076171875</v>
@@ -15190,16 +15190,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4675</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D7">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E7">
-        <v>0.99968475103378296</v>
+        <v>0.999672532081604</v>
       </c>
       <c r="F7">
         <v>59421.828125</v>
@@ -15208,16 +15208,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4676</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D8">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E8">
-        <v>0.99993377923965454</v>
+        <v>0.9999312162399292</v>
       </c>
       <c r="F8">
         <v>96801.609375</v>
@@ -15226,16 +15226,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4677</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D9">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E9">
-        <v>0.99996107816696167</v>
+        <v>0.99995958805084229</v>
       </c>
       <c r="F9">
         <v>155159.8125</v>
@@ -15244,16 +15244,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4678</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6401415</v>
+        <v>6162955</v>
       </c>
       <c r="D10">
-        <v>313.27169799804688</v>
+        <v>325.3929443359375</v>
       </c>
       <c r="E10">
-        <v>0.99999856948852539</v>
+        <v>0.99999850988388062</v>
       </c>
       <c r="F10">
         <v>418374.375</v>
@@ -15270,22 +15270,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4683</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4684</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4695</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4696</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4697</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4698</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -15293,16 +15293,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>4685</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D2">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E2">
-        <v>0.96651256084442139</v>
+        <v>0.96501660346984863</v>
       </c>
       <c r="F2">
         <v>1320.67138671875</v>
@@ -15311,16 +15311,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4686</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D3">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E3">
-        <v>0.96788084506988525</v>
+        <v>0.96644598245620728</v>
       </c>
       <c r="F3">
         <v>4102.26953125</v>
@@ -15329,16 +15329,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4687</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D4">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E4">
-        <v>0.9719274640083313</v>
+        <v>0.97067344188690186</v>
       </c>
       <c r="F4">
         <v>8481.1552734375</v>
@@ -15347,16 +15347,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4688</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D5">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E5">
-        <v>0.99373382329940796</v>
+        <v>0.99345391988754272</v>
       </c>
       <c r="F5">
         <v>17692.396484375</v>
@@ -15365,16 +15365,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4689</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D6">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E6">
-        <v>0.99846792221069336</v>
+        <v>0.99839949607849121</v>
       </c>
       <c r="F6">
         <v>31801.20703125</v>
@@ -15383,16 +15383,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4690</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D7">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E7">
-        <v>0.99966549873352051</v>
+        <v>0.99965053796768188</v>
       </c>
       <c r="F7">
         <v>59449.07421875</v>
@@ -15401,16 +15401,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4691</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D8">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E8">
-        <v>0.99993187189102173</v>
+        <v>0.99992883205413818</v>
       </c>
       <c r="F8">
         <v>97244.203125</v>
@@ -15419,16 +15419,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4692</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D9">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E9">
-        <v>0.99995911121368408</v>
+        <v>0.99995732307434082</v>
       </c>
       <c r="F9">
         <v>154524.203125</v>
@@ -15437,16 +15437,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4693</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D10">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E10">
-        <v>0.99999797344207764</v>
+        <v>0.99999791383743286</v>
       </c>
       <c r="F10">
         <v>410169.59375</v>
@@ -15455,13 +15455,13 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4694</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6459911</v>
+        <v>6183676</v>
       </c>
       <c r="D11">
-        <v>376.9337158203125</v>
+        <v>393.77197265625</v>
       </c>
       <c r="E11">
         <v>0.99999982118606567</v>
@@ -15481,22 +15481,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4699</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4700</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4711</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4712</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4713</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4714</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -15504,16 +15504,16 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>4701</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D2">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E2">
-        <v>0.96746373176574707</v>
+        <v>0.96577620506286621</v>
       </c>
       <c r="F2">
         <v>1327.1090087890625</v>
@@ -15522,16 +15522,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4702</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D3">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E3">
-        <v>0.96858036518096924</v>
+        <v>0.96695071458816528</v>
       </c>
       <c r="F3">
         <v>4107.818359375</v>
@@ -15540,16 +15540,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4703</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D4">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E4">
-        <v>0.97252064943313599</v>
+        <v>0.97109532356262207</v>
       </c>
       <c r="F4">
         <v>8473.822265625</v>
@@ -15558,16 +15558,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4704</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D5">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E5">
-        <v>0.99345380067825317</v>
+        <v>0.99311429262161255</v>
       </c>
       <c r="F5">
         <v>17741.34765625</v>
@@ -15576,16 +15576,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4705</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D6">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E6">
-        <v>0.99837684631347656</v>
+        <v>0.99829262495040894</v>
       </c>
       <c r="F6">
         <v>31790.74609375</v>
@@ -15594,16 +15594,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4706</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D7">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E7">
-        <v>0.99964815378189087</v>
+        <v>0.9996299147605896</v>
       </c>
       <c r="F7">
         <v>59103.09375</v>
@@ -15612,16 +15612,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4707</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D8">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E8">
-        <v>0.99993038177490234</v>
+        <v>0.99992680549621582</v>
       </c>
       <c r="F8">
         <v>98121.609375</v>
@@ -15630,16 +15630,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4708</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D9">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E9">
-        <v>0.9999585747718811</v>
+        <v>0.99995642900466919</v>
       </c>
       <c r="F9">
         <v>152572.59375</v>
@@ -15648,16 +15648,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4709</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D10">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E10">
-        <v>0.99999648332595825</v>
+        <v>0.99999630451202393</v>
       </c>
       <c r="F10">
         <v>447779.21875</v>
@@ -15666,16 +15666,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4710</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6522419</v>
+        <v>6200800</v>
       </c>
       <c r="D11">
-        <v>350.07925415039063</v>
+        <v>368.2369384765625</v>
       </c>
       <c r="E11">
-        <v>0.99999892711639404</v>
+        <v>0.99999886751174927</v>
       </c>
       <c r="F11">
         <v>879629.5625</v>
@@ -15718,13 +15718,13 @@
         <v>4717</v>
       </c>
       <c r="C2">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D2">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E2">
-        <v>0.96423381567001343</v>
+        <v>0.96211367845535278</v>
       </c>
       <c r="F2">
         <v>1387.70263671875</v>
@@ -15733,16 +15733,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4718</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D3">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E3">
-        <v>0.96533304452896118</v>
+        <v>0.96327805519104004</v>
       </c>
       <c r="F3">
         <v>4151.29345703125</v>
@@ -15751,16 +15751,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4719</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D4">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E4">
-        <v>0.96948277950286865</v>
+        <v>0.96767377853393555</v>
       </c>
       <c r="F4">
         <v>8382.5107421875</v>
@@ -15769,16 +15769,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4720</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D5">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E5">
-        <v>0.99306046962738037</v>
+        <v>0.9926491379737854</v>
       </c>
       <c r="F5">
         <v>17730.552734375</v>
@@ -15787,16 +15787,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4721</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D6">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E6">
-        <v>0.99832040071487427</v>
+        <v>0.99822080135345459</v>
       </c>
       <c r="F6">
         <v>31765.107421875</v>
@@ -15805,16 +15805,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4722</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D7">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E7">
-        <v>0.99964296817779541</v>
+        <v>0.99962180852890015</v>
       </c>
       <c r="F7">
         <v>58941.44921875</v>
@@ -15823,16 +15823,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4723</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D8">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E8">
-        <v>0.99992978572845459</v>
+        <v>0.99992567300796509</v>
       </c>
       <c r="F8">
         <v>96858.4375</v>
@@ -15841,16 +15841,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4724</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D9">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E9">
-        <v>0.99996048212051392</v>
+        <v>0.99995815753936768</v>
       </c>
       <c r="F9">
         <v>158476.5625</v>
@@ -15859,16 +15859,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D10">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E10">
-        <v>0.99999833106994629</v>
+        <v>0.99999821186065674</v>
       </c>
       <c r="F10">
         <v>418836.5</v>
@@ -15880,10 +15880,10 @@
         <v>4726</v>
       </c>
       <c r="C11">
-        <v>6581860</v>
+        <v>6213533</v>
       </c>
       <c r="D11">
-        <v>378.29879760742188</v>
+        <v>400.72366333007812</v>
       </c>
       <c r="E11">
         <v>0.99999982118606567</v>
@@ -15903,22 +15903,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4498</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4499</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4510</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4511</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4512</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4513</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -15926,16 +15926,16 @@
         <v>2001</v>
       </c>
       <c r="B2" t="s">
-        <v>4500</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D2">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E2">
-        <v>0.97400397062301636</v>
+        <v>0.97199761867523193</v>
       </c>
       <c r="F2">
         <v>1439.756591796875</v>
@@ -15944,16 +15944,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4501</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D3">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E3">
-        <v>0.97671604156494141</v>
+        <v>0.97491896152496338</v>
       </c>
       <c r="F3">
         <v>3623.717529296875</v>
@@ -15962,16 +15962,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4502</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D4">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E4">
-        <v>0.98226165771484375</v>
+        <v>0.9808925986289978</v>
       </c>
       <c r="F4">
         <v>7716.95947265625</v>
@@ -15980,16 +15980,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4503</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D5">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E5">
-        <v>0.99757212400436401</v>
+        <v>0.99738472700119019</v>
       </c>
       <c r="F5">
         <v>17315.39453125</v>
@@ -15998,16 +15998,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4504</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D6">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E6">
-        <v>0.99952805042266846</v>
+        <v>0.99949163198471069</v>
       </c>
       <c r="F6">
         <v>32135.671875</v>
@@ -16016,16 +16016,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4505</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D7">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E7">
-        <v>0.99991893768310547</v>
+        <v>0.99991267919540405</v>
       </c>
       <c r="F7">
         <v>59669.40234375</v>
@@ -16034,16 +16034,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4506</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D8">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E8">
-        <v>0.99998539686203003</v>
+        <v>0.9999842643737793</v>
       </c>
       <c r="F8">
         <v>105140.609375</v>
@@ -16052,16 +16052,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4507</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D9">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E9">
-        <v>0.99999237060546875</v>
+        <v>0.999991774559021</v>
       </c>
       <c r="F9">
         <v>171057.65625</v>
@@ -16070,13 +16070,13 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4508</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D10">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E10">
         <v>0.9999995231628418</v>
@@ -16088,13 +16088,13 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4509</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6428672</v>
+        <v>5968060</v>
       </c>
       <c r="D11">
-        <v>194.9097900390625</v>
+        <v>209.95283508300781</v>
       </c>
       <c r="E11">
         <v>0.99999982118606567</v>
@@ -16114,22 +16114,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4514</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4515</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4525</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4526</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4527</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4528</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -16137,16 +16137,16 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>4516</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D2">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E2">
-        <v>0.97435450553894043</v>
+        <v>0.9721110463142395</v>
       </c>
       <c r="F2">
         <v>1426.2999267578125</v>
@@ -16155,16 +16155,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4517</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D3">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E3">
-        <v>0.97716909646987915</v>
+        <v>0.97517186403274536</v>
       </c>
       <c r="F3">
         <v>3626.1875</v>
@@ -16173,16 +16173,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4518</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D4">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E4">
-        <v>0.98309075832366943</v>
+        <v>0.98161154985427856</v>
       </c>
       <c r="F4">
         <v>7703.31787109375</v>
@@ -16191,16 +16191,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4519</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D5">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E5">
-        <v>0.99766159057617188</v>
+        <v>0.99745702743530273</v>
       </c>
       <c r="F5">
         <v>17367.25390625</v>
@@ -16209,16 +16209,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4520</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D6">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E6">
-        <v>0.99954533576965332</v>
+        <v>0.99950557947158813</v>
       </c>
       <c r="F6">
         <v>31678.6484375</v>
@@ -16227,16 +16227,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4521</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D7">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E7">
-        <v>0.99991905689239502</v>
+        <v>0.99991196393966675</v>
       </c>
       <c r="F7">
         <v>58755.1640625</v>
@@ -16245,16 +16245,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4522</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D8">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E8">
-        <v>0.99998676776885986</v>
+        <v>0.99998563528060913</v>
       </c>
       <c r="F8">
         <v>101331.4921875</v>
@@ -16263,16 +16263,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4523</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D9">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E9">
-        <v>0.9999924898147583</v>
+        <v>0.99999183416366577</v>
       </c>
       <c r="F9">
         <v>156076.640625</v>
@@ -16281,16 +16281,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4524</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6510348</v>
+        <v>5986631</v>
       </c>
       <c r="D10">
-        <v>188.13681030273438</v>
+        <v>204.59521484375</v>
       </c>
       <c r="E10">
-        <v>0.99999970197677612</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="F10">
         <v>548624</v>
@@ -16307,22 +16307,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4529</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4530</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4540</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4541</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4542</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4543</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -16330,16 +16330,16 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>4531</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D2">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E2">
-        <v>0.97292399406433105</v>
+        <v>0.97003334760665894</v>
       </c>
       <c r="F2">
         <v>1388.9796142578125</v>
@@ -16348,16 +16348,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4532</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D3">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E3">
-        <v>0.97601085901260376</v>
+        <v>0.97344982624053955</v>
       </c>
       <c r="F3">
         <v>3619.166015625</v>
@@ -16366,16 +16366,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4533</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D4">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E4">
-        <v>0.98206990957260132</v>
+        <v>0.98015570640563965</v>
       </c>
       <c r="F4">
         <v>7665.11572265625</v>
@@ -16384,16 +16384,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4534</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D5">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E5">
-        <v>0.99758970737457275</v>
+        <v>0.99733239412307739</v>
       </c>
       <c r="F5">
         <v>17363.50390625</v>
@@ -16402,16 +16402,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4535</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D6">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E6">
-        <v>0.99951797723770142</v>
+        <v>0.99946653842926025</v>
       </c>
       <c r="F6">
         <v>31698.923828125</v>
@@ -16420,16 +16420,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4536</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D7">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E7">
-        <v>0.99991536140441895</v>
+        <v>0.99990630149841309</v>
       </c>
       <c r="F7">
         <v>58452.421875</v>
@@ -16438,16 +16438,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4537</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D8">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E8">
-        <v>0.99998676776885986</v>
+        <v>0.99998533725738525</v>
       </c>
       <c r="F8">
         <v>99284.2734375</v>
@@ -16456,16 +16456,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4538</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D9">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E9">
-        <v>0.99999260902404785</v>
+        <v>0.99999183416366577</v>
       </c>
       <c r="F9">
         <v>156685.3125</v>
@@ -16474,16 +16474,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4539</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6639010</v>
+        <v>5998599</v>
       </c>
       <c r="D10">
-        <v>197.250732421875</v>
+        <v>218.30923461914062</v>
       </c>
       <c r="E10">
-        <v>0.99999970197677612</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="F10">
         <v>432176.5</v>
@@ -16500,22 +16500,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4544</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4545</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4555</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4556</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4557</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4558</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -16523,16 +16523,16 @@
         <v>2004</v>
       </c>
       <c r="B2" t="s">
-        <v>4546</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D2">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E2">
-        <v>0.97162038087844849</v>
+        <v>0.96806567907333374</v>
       </c>
       <c r="F2">
         <v>1355.9637451171875</v>
@@ -16541,16 +16541,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4547</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D3">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E3">
-        <v>0.97502821683883667</v>
+        <v>0.97190040349960327</v>
       </c>
       <c r="F3">
         <v>3622.2939453125</v>
@@ -16559,16 +16559,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4548</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D4">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E4">
-        <v>0.98131805658340454</v>
+        <v>0.97897803783416748</v>
       </c>
       <c r="F4">
         <v>7621.955078125</v>
@@ -16577,16 +16577,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4549</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D5">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E5">
-        <v>0.99749034643173218</v>
+        <v>0.99717605113983154</v>
       </c>
       <c r="F5">
         <v>17429.40625</v>
@@ -16595,16 +16595,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4550</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D6">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E6">
-        <v>0.99949455261230469</v>
+        <v>0.99943125247955322</v>
       </c>
       <c r="F6">
         <v>31635.580078125</v>
@@ -16613,16 +16613,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4551</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D7">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E7">
-        <v>0.99991387128829956</v>
+        <v>0.99990308284759521</v>
       </c>
       <c r="F7">
         <v>58672.51953125</v>
@@ -16631,16 +16631,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4552</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D8">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E8">
-        <v>0.99998581409454346</v>
+        <v>0.9999840259552002</v>
       </c>
       <c r="F8">
         <v>100065.4140625</v>
@@ -16649,16 +16649,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4553</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D9">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E9">
-        <v>0.99999153614044189</v>
+        <v>0.99999052286148071</v>
       </c>
       <c r="F9">
         <v>157622.859375</v>
@@ -16667,16 +16667,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4554</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6756786</v>
+        <v>6004671</v>
       </c>
       <c r="D10">
-        <v>205.14179992675781</v>
+        <v>230.83682250976562</v>
       </c>
       <c r="E10">
-        <v>0.99999970197677612</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="F10">
         <v>659838</v>
@@ -16693,22 +16693,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4559</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4560</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4571</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4572</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4573</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4574</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -16716,16 +16716,16 @@
         <v>2005</v>
       </c>
       <c r="B2" t="s">
-        <v>4561</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D2">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E2">
-        <v>0.97050529718399048</v>
+        <v>0.9662889838218689</v>
       </c>
       <c r="F2">
         <v>1343.6026611328125</v>
@@ -16734,16 +16734,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4562</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D3">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E3">
-        <v>0.97409307956695557</v>
+        <v>0.970389723777771</v>
       </c>
       <c r="F3">
         <v>3630.235595703125</v>
@@ -16752,16 +16752,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4563</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D4">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E4">
-        <v>0.98050838708877563</v>
+        <v>0.97772204875946045</v>
       </c>
       <c r="F4">
         <v>7662.38916015625</v>
@@ -16770,16 +16770,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4564</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D5">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E5">
-        <v>0.99718314409255981</v>
+        <v>0.99678051471710205</v>
       </c>
       <c r="F5">
         <v>17361.23046875</v>
@@ -16788,16 +16788,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4565</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D6">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E6">
-        <v>0.99940472841262817</v>
+        <v>0.99931961297988892</v>
       </c>
       <c r="F6">
         <v>31749.0703125</v>
@@ -16806,16 +16806,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4566</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D7">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E7">
-        <v>0.99988925457000732</v>
+        <v>0.99987345933914185</v>
       </c>
       <c r="F7">
         <v>59601.703125</v>
@@ -16824,16 +16824,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4567</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D8">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E8">
-        <v>0.99998414516448975</v>
+        <v>0.99998182058334351</v>
       </c>
       <c r="F8">
         <v>101204.046875</v>
@@ -16842,16 +16842,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4568</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D9">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E9">
-        <v>0.99999040365219116</v>
+        <v>0.99998903274536133</v>
       </c>
       <c r="F9">
         <v>163696.53125</v>
@@ -16860,16 +16860,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4569</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D10">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E10">
-        <v>0.99999940395355225</v>
+        <v>0.99999934434890747</v>
       </c>
       <c r="F10">
         <v>558373.875</v>
@@ -16878,16 +16878,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4570</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6864080</v>
+        <v>6005578</v>
       </c>
       <c r="D11">
-        <v>218.61572265625</v>
+        <v>249.86701965332031</v>
       </c>
       <c r="E11">
-        <v>0.99999970197677612</v>
+        <v>0.99999964237213135</v>
       </c>
       <c r="F11">
         <v>2939090.25</v>
@@ -16904,22 +16904,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4575</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4576</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4587</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4588</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4589</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4590</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -16927,16 +16927,16 @@
         <v>2006</v>
       </c>
       <c r="B2" t="s">
-        <v>4577</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D2">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E2">
-        <v>0.96766865253448486</v>
+        <v>0.96240085363388062</v>
       </c>
       <c r="F2">
         <v>1342.335205078125</v>
@@ -16945,16 +16945,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4578</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D3">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E3">
-        <v>0.97156429290771484</v>
+        <v>0.96693128347396851</v>
       </c>
       <c r="F3">
         <v>3647.19677734375</v>
@@ -16963,16 +16963,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4579</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D4">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E4">
-        <v>0.9785650372505188</v>
+        <v>0.97507262229919434</v>
       </c>
       <c r="F4">
         <v>7773.19140625</v>
@@ -16981,16 +16981,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4580</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D5">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E5">
-        <v>0.99689596891403198</v>
+        <v>0.99639022350311279</v>
       </c>
       <c r="F5">
         <v>17416.837890625</v>
@@ -16999,16 +16999,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4581</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D6">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E6">
-        <v>0.99932223558425903</v>
+        <v>0.99921178817749023</v>
       </c>
       <c r="F6">
         <v>31705.818359375</v>
@@ -17017,16 +17017,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4582</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D7">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E7">
-        <v>0.99986946582794189</v>
+        <v>0.99984824657440186</v>
       </c>
       <c r="F7">
         <v>60918.17578125</v>
@@ -17035,16 +17035,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4583</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D8">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E8">
-        <v>0.99997824430465698</v>
+        <v>0.99997466802597046</v>
       </c>
       <c r="F8">
         <v>102267.9453125</v>
@@ -17053,16 +17053,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4584</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D9">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E9">
-        <v>0.99998623132705688</v>
+        <v>0.9999840259552002</v>
       </c>
       <c r="F9">
         <v>177438.625</v>
@@ -17071,16 +17071,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4585</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D10">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E10">
-        <v>0.99999815225601196</v>
+        <v>0.99999785423278809</v>
       </c>
       <c r="F10">
         <v>777727.9375</v>
@@ -17089,16 +17089,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4586</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>6980279</v>
+        <v>6002319</v>
       </c>
       <c r="D11">
-        <v>271.032958984375</v>
+        <v>315.19244384765625</v>
       </c>
       <c r="E11">
-        <v>0.99999886751174927</v>
+        <v>0.99999868869781494</v>
       </c>
       <c r="F11">
         <v>24483690</v>
@@ -17115,22 +17115,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4591</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4592</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4603</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4604</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4605</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4606</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -17138,16 +17138,16 @@
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>4593</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D2">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E2">
-        <v>0.95519214868545532</v>
+        <v>0.95716977119445801</v>
       </c>
       <c r="F2">
         <v>1299.1383056640625</v>
@@ -17156,16 +17156,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4594</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D3">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E3">
-        <v>0.9608386754989624</v>
+        <v>0.96256715059280396</v>
       </c>
       <c r="F3">
         <v>3653.9521484375</v>
@@ -17174,16 +17174,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4595</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D4">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E4">
-        <v>0.97002440690994263</v>
+        <v>0.9713473916053772</v>
       </c>
       <c r="F4">
         <v>7774.88720703125</v>
@@ -17192,16 +17192,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4596</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D5">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E5">
-        <v>0.9957619309425354</v>
+        <v>0.99594897031784058</v>
       </c>
       <c r="F5">
         <v>17476.38671875</v>
@@ -17210,16 +17210,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4597</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D6">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E6">
-        <v>0.99908852577209473</v>
+        <v>0.99912875890731812</v>
       </c>
       <c r="F6">
         <v>31775.55078125</v>
@@ -17228,16 +17228,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4598</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D7">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E7">
-        <v>0.99982351064682007</v>
+        <v>0.99983125925064087</v>
       </c>
       <c r="F7">
         <v>60529.80078125</v>
@@ -17246,16 +17246,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4599</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D8">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E8">
-        <v>0.99997162818908691</v>
+        <v>0.9999728798866272</v>
       </c>
       <c r="F8">
         <v>99622.4296875</v>
@@ -17264,16 +17264,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4600</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D9">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E9">
-        <v>0.9999845027923584</v>
+        <v>0.9999852180480957</v>
       </c>
       <c r="F9">
         <v>164079.3125</v>
@@ -17282,16 +17282,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4601</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D10">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E10">
-        <v>0.99999862909317017</v>
+        <v>0.99999868869781494</v>
       </c>
       <c r="F10">
         <v>636313.6875</v>
@@ -17300,16 +17300,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>4602</v>
+        <v>4726</v>
       </c>
       <c r="C11">
-        <v>5744575</v>
+        <v>6009824</v>
       </c>
       <c r="D11">
-        <v>338.28610229492188</v>
+        <v>323.35556030273438</v>
       </c>
       <c r="E11">
-        <v>0.9999992847442627</v>
+        <v>0.99999934434890747</v>
       </c>
       <c r="F11">
         <v>3996104</v>
@@ -17326,22 +17326,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4607</v>
+        <v>4715</v>
       </c>
       <c r="B1" t="s">
-        <v>4608</v>
+        <v>4716</v>
       </c>
       <c r="C1" t="s">
-        <v>4618</v>
+        <v>4727</v>
       </c>
       <c r="D1" t="s">
-        <v>4619</v>
+        <v>4728</v>
       </c>
       <c r="E1" t="s">
-        <v>4620</v>
+        <v>4729</v>
       </c>
       <c r="F1" t="s">
-        <v>4621</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="2">
@@ -17349,16 +17349,16 @@
         <v>2009</v>
       </c>
       <c r="B2" t="s">
-        <v>4609</v>
+        <v>4717</v>
       </c>
       <c r="C2">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D2">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E2">
-        <v>0.95495527982711792</v>
+        <v>0.95419061183929443</v>
       </c>
       <c r="F2">
         <v>1237.207763671875</v>
@@ -17367,16 +17367,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>4610</v>
+        <v>4726</v>
       </c>
       <c r="C3">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D3">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E3">
-        <v>0.95971566438674927</v>
+        <v>0.95903182029724121</v>
       </c>
       <c r="F3">
         <v>3738.790283203125</v>
@@ -17385,16 +17385,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>4611</v>
+        <v>4726</v>
       </c>
       <c r="C4">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D4">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E4">
-        <v>0.96860337257385254</v>
+        <v>0.96807044744491577</v>
       </c>
       <c r="F4">
         <v>7906.50390625</v>
@@ -17403,16 +17403,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>4612</v>
+        <v>4726</v>
       </c>
       <c r="C5">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D5">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E5">
-        <v>0.99529224634170532</v>
+        <v>0.9952123761177063</v>
       </c>
       <c r="F5">
         <v>17443.015625</v>
@@ -17421,16 +17421,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>4613</v>
+        <v>4726</v>
       </c>
       <c r="C6">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D6">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E6">
-        <v>0.99901574850082397</v>
+        <v>0.99899905920028687</v>
       </c>
       <c r="F6">
         <v>31914.291015625</v>
@@ -17439,16 +17439,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>4614</v>
+        <v>4726</v>
       </c>
       <c r="C7">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D7">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E7">
-        <v>0.99980849027633667</v>
+        <v>0.99980521202087402</v>
       </c>
       <c r="F7">
         <v>60745.10546875</v>
@@ -17457,16 +17457,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>4615</v>
+        <v>4726</v>
       </c>
       <c r="C8">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D8">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E8">
-        <v>0.99996685981750488</v>
+        <v>0.99996626377105713</v>
       </c>
       <c r="F8">
         <v>99300.59375</v>
@@ -17475,16 +17475,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>4616</v>
+        <v>4726</v>
       </c>
       <c r="C9">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D9">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E9">
-        <v>0.99998033046722412</v>
+        <v>0.99997997283935547</v>
       </c>
       <c r="F9">
         <v>161686.15625</v>
@@ -17493,13 +17493,13 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>4617</v>
+        <v>4726</v>
       </c>
       <c r="C10">
-        <v>6150953</v>
+        <v>6048279</v>
       </c>
       <c r="D10">
-        <v>354.6534423828125</v>
+        <v>360.6739501953125</v>
       </c>
       <c r="E10">
         <v>0.9999995231628418</v>
